--- a/medicine/Enfance/Florence_Reynaud/Florence_Reynaud.xlsx
+++ b/medicine/Enfance/Florence_Reynaud/Florence_Reynaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Reynaud, née à Angoulême le 18 mars 1954, est une écrivaine française principalement connue pour ses romans destinés à la jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa série en douze volumes Yona, fille de la Préhistoire se déroule en Ariège, où vit l'auteur. L'histoire et les animaux sont des thèmes de prédilection.
-Son premier roman Une fin du monde comme une autre[1] a été publié en 1991 alors qu'elle était déjà mère de cinq enfants.
+Son premier roman Une fin du monde comme une autre a été publié en 1991 alors qu'elle était déjà mère de cinq enfants.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une fin du monde comme une autre Hachette Jeunesse, 1991
 La Demoiselle des loups, Hachette Jeunesse, 1993.
@@ -556,7 +572,7 @@
 Le Traîneau d'Oloona, Bayard Poche, 2002
 Le Lion de Julius, Castor Poche, 2002
 Enfant de personne, Bayard Poche, 2002
-Les Évadés du bagne, Castor Poche, 2003, inspiré de faits réels[2].
+Les Évadés du bagne, Castor Poche, 2003, inspiré de faits réels.
 Liano, je te sauverai / Liano hors-concours / Liano entre en piste, Collection Passion Cheval Castor Poche, 2003
 Le Sourire d'Ouni, Livre de poche Hachette Jeunesse, 2004
 Dylan le dauphin  - 12 livres - Pocket Junior, 2003-2005
